--- a/docs/4.서버구조설계-데이터_모델_스케치_간이_ER.xlsx
+++ b/docs/4.서버구조설계-데이터_모델_스케치_간이_ER.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="803" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="803" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Users</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>concerts (콘서트 정보) 테이블</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -301,10 +297,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Concerts</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -348,18 +340,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Schedules</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(20)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>계정 상태 (ACTIVE, DEACTIVE, ..등)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>users (1) --- (N) queue_tokens</t>
   </si>
   <si>
@@ -391,14 +375,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>startAt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>콘서트 시작 시간</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>isReservable</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -421,26 +397,6 @@
     <t>concerts_schedules (1) --- (N) queue_tokens</t>
   </si>
   <si>
-    <t>PaymentsHistories</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Payments</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PointsHistories</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Points</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReservationHistories</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Reservation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -449,10 +405,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Seats</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>* 부모 테이블 (n) --- 좌식 테이블 (n) 으로 표현하는 것으로 통일함</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -505,10 +457,6 @@
   </si>
   <si>
     <t>콘서트 좌석 수정 시각</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM (AVAILABLE, TEMPORARY, RESERVED)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -691,10 +639,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>reservationStatus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>* API 초안 표에 reservationStatus 필드를 응답 값에 누락했으므로 추가해야 한다</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -773,14 +717,6 @@
   </si>
   <si>
     <t>reservationId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>expireAt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -938,10 +874,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>포인트 증감량을 의미하며, 양수만 허용되도록 함 (예 : type 값이 USE이고, amount가 5000인 경우 5000 포인트를 사용 했다는 의미가 됨)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>포인트 충전 및 사용 (트랜잭션) 이후 포인트 잔액</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1070,10 +1002,6 @@
   </si>
   <si>
     <t>결제 성공, 실패, 취소, .. 등의 설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1142,10 +1070,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>paymentStatus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>현재 결제 상태 (paymentStatus column의 ENUM 값에 REQUESTED 값을 추가할지 고려해보도록 한다)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1171,15 +1095,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>uk_seats_reservations_scheduleId_seatId UNIQUE (scheduleId, seatId)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uk_seats_reservations_scheduleId_seatId_isActive (scheduleId, seatId, isActive)</t>
+  </si>
+  <si>
     <t>CONSTRAINT uk_concerts_schedules_seats_scheduleId_seatNumber UNIQUE (scheduleId, seatNumber)</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uk_seats_reservations_scheduleId_seatId UNIQUE (scheduleId, seatId)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uk_seats_reservations_scheduleId_seatId_isActive (scheduleId, seatId, isActive)</t>
   </si>
   <si>
     <t>* 같은 일정 (콘서트 스케줄) 이고, 동일한 좌석에 예약 정보가 n개 생성될 수 있다 (전체 시간 타임대를 통틀어서)
@@ -1191,7 +1115,7 @@
 수정 사항 
 1. scheduleId와 seatId로 그대로 UNIQUE Key로 설정하는 경우 평생 하나의 특정 좌석에 대해 1개의 예약밖에 될 수 없어서, 특정 사용자가 대기열 토큰이 만료되는 등의 경우로 동일 좌석에 대해 새로운 예약을 시도하려고 해도 새로운 row를 생성할 수 없게 된다
 이는, 새로운 사용자가 동일한 좌석에 대해 예약을 시도할 때 해당 row를 UPDATE 하는 방식으로 진행되는 것을 의미하게 된다
-이는, userId가 변경되는 식으로 UPDATE 되도록 될텐데, 아무리 seats_reservations_histories 테이블이 존재하더라도 감사 및 결제 참조 시 잠재적인 문제가 발생될 수 있다고 판단이 되서, 새로운 row를 CRAETE 해야 한다고 보여진다
+이는, userId가 변경되는 식으로 UPDATE 되도록 될텐데, 아무리 seats_reservations_histories 테이블이 존재하더라도 감사 및 결제 참조 시 잠재적인 문제가 발생될 수 있다고 판단이 되서, 새로운 row를 CREATE 해야 한다고 보여진다
 2. 이런 경우 부분 인덱스 (조건부 유니크) 개념을 사용해서 해결할 수 있으나, MySQL은 부분 인덱스 개념이 없으므로, 다른 방법을 사용해서 해결해야 한다
 3. 해결 방법
 Stored Generated (생성) Column을 하나 추가하고, 복합 UNIQUE Key와 조합하여 처리 (생성 컬럼 : 실 데이터를 저장하지는 않음)
@@ -1220,6 +1144,58 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>ReservationHistory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schedule</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concert</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointHistory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaymentHistory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 증감량을 의미하며, 양수만 허용되도록 함 (예 : type 값이 USE이고, amount가 5000인 경우 5000 포인트를 사용 했다는 의미가 됨)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 (스케줄) 일시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM (AVAILABLE, TEMPORARY, RESERVED)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservationStatus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>isActive</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1229,6 +1205,30 @@
   </si>
   <si>
     <t>좌석 임시 배정 (예약) 시 동시성 문제 처리 등을 위해 생성된 칼럼으로, 생성 컬럼 (Generated Column) 에 의해 DB가 자동으로 계산하여 값을 부여할 수 있도록 하기 위함 (1, NULL)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservationStatus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>expireAt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 상태 (ACTIVE, INACTIVE, ..등)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentStatus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>startAt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1592,6 +1592,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1631,14 +1637,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1927,7 +1927,7 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1952,50 +1952,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27" x14ac:dyDescent="0.9">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
     </row>
     <row r="2" spans="1:24" ht="24.75" x14ac:dyDescent="0.85">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
     </row>
     <row r="3" spans="1:24" ht="27" x14ac:dyDescent="0.6">
       <c r="U3" s="3" t="s">
@@ -2010,50 +2010,50 @@
       <c r="X4" s="7"/>
     </row>
     <row r="5" spans="1:24" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
       <c r="U5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="X5" s="7"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A6" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
+      <c r="A6" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="39"/>
       <c r="U6" s="6" t="s">
         <v>2</v>
       </c>
@@ -2074,21 +2074,21 @@
       <c r="X8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="G9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="G9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
       <c r="N9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>12</v>
@@ -2098,31 +2098,31 @@
     </row>
     <row r="10" spans="1:24" ht="33.75" x14ac:dyDescent="0.7">
       <c r="A10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="N10" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U10" s="8" t="s">
         <v>5</v>
@@ -2131,58 +2131,58 @@
     </row>
     <row r="11" spans="1:24" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="N11" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U11" s="8"/>
       <c r="X11" s="7"/>
     </row>
     <row r="12" spans="1:24" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="C12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12" s="13"/>
       <c r="N12" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>8</v>
@@ -2199,27 +2199,27 @@
     </row>
     <row r="13" spans="1:24" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A13" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K13" s="13"/>
       <c r="N13" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -2228,86 +2228,86 @@
     </row>
     <row r="14" spans="1:24" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A14" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="13"/>
       <c r="I14" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14" s="13"/>
       <c r="N14" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="G15" s="13"/>
       <c r="I15" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15" s="13"/>
       <c r="N15" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q15" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A16" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="13"/>
       <c r="I16" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K16" s="13"/>
       <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A17" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="13"/>
       <c r="I17" s="13"/>
@@ -2339,7 +2339,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -2368,107 +2368,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" x14ac:dyDescent="0.9">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:18" ht="24.75" x14ac:dyDescent="0.85">
-      <c r="A2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
     </row>
     <row r="5" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A6" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
+      <c r="A6" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="39"/>
     </row>
     <row r="9" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="G9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="G9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
       <c r="N9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>12</v>
@@ -2476,120 +2476,120 @@
     </row>
     <row r="10" spans="1:18" ht="33.75" x14ac:dyDescent="0.7">
       <c r="A10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="N10" s="13" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A12" s="13" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="G12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K12" s="13"/>
       <c r="N12" s="13" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A13" s="13" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G13" s="13"/>
       <c r="I13" s="13"/>
       <c r="K13" s="13"/>
       <c r="N13" s="13" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A14" s="13" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="G14" s="13"/>
       <c r="I14" s="13"/>
@@ -2599,16 +2599,16 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A15" s="13" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="G15" s="13"/>
       <c r="I15" s="13"/>
@@ -2618,16 +2618,16 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A16" s="13" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="G16" s="13"/>
       <c r="I16" s="13"/>
@@ -2636,53 +2636,53 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A17" s="21" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A18" s="21" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="84.4" x14ac:dyDescent="0.6">
       <c r="Q19" s="18" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.6">
       <c r="K20" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.6">
       <c r="D22" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="K22" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="67.5" x14ac:dyDescent="0.6">
       <c r="K25" s="18" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2703,8 +2703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -2733,107 +2733,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" x14ac:dyDescent="0.9">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:18" ht="24.75" x14ac:dyDescent="0.85">
-      <c r="A2" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
     </row>
     <row r="5" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A6" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
+      <c r="A6" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="39"/>
     </row>
     <row r="9" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="G9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="G9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
       <c r="N9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>12</v>
@@ -2841,70 +2841,70 @@
     </row>
     <row r="10" spans="1:18" ht="33.75" x14ac:dyDescent="0.7">
       <c r="A10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="N10" s="13" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="K11" s="13"/>
       <c r="N11" s="13"/>
       <c r="Q11" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A12" s="13" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="G12" s="13"/>
       <c r="I12" s="13"/>
@@ -2914,16 +2914,16 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A13" s="13" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="G13" s="13"/>
       <c r="I13" s="13"/>
@@ -2933,16 +2933,16 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A14" s="13" t="s">
-        <v>253</v>
+        <v>69</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>35</v>
+        <v>280</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="G14" s="13"/>
       <c r="I14" s="13"/>
@@ -2952,16 +2952,16 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A15" s="13" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="G15" s="13"/>
       <c r="I15" s="13"/>
@@ -2998,7 +2998,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="K26" sqref="J26:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -3024,107 +3024,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" x14ac:dyDescent="0.9">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:18" ht="24.75" x14ac:dyDescent="0.85">
-      <c r="A2" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
     </row>
     <row r="5" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A6" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
+      <c r="A6" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="39"/>
     </row>
     <row r="9" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="G9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="G9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
       <c r="N9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>12</v>
@@ -3132,68 +3132,68 @@
     </row>
     <row r="10" spans="1:18" ht="33.75" x14ac:dyDescent="0.7">
       <c r="A10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="N10" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="13"/>
       <c r="K11" s="13"/>
       <c r="N11" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A12" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G12" s="13"/>
       <c r="I12" s="13"/>
@@ -3203,16 +3203,16 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="G13" s="13"/>
       <c r="I13" s="13"/>
@@ -3222,16 +3222,16 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A14" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G14" s="13"/>
       <c r="I14" s="13"/>
@@ -3241,16 +3241,16 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A15" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G15" s="13"/>
       <c r="I15" s="13"/>
@@ -3292,8 +3292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -3319,107 +3319,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" x14ac:dyDescent="0.9">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:18" ht="24.75" x14ac:dyDescent="0.85">
-      <c r="A2" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
     </row>
     <row r="5" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A6" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
+      <c r="A6" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="39"/>
     </row>
     <row r="9" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="G9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="G9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
       <c r="N9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>12</v>
@@ -3427,114 +3427,114 @@
     </row>
     <row r="10" spans="1:18" ht="33.75" x14ac:dyDescent="0.7">
       <c r="A10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="N10" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K11" s="13"/>
       <c r="N11" s="13" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A12" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G12" s="13"/>
       <c r="I12" s="13"/>
       <c r="K12" s="13"/>
       <c r="N12" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A13" s="13" t="s">
-        <v>90</v>
+        <v>281</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c r="G13" s="13"/>
       <c r="I13" s="13"/>
       <c r="K13" s="13"/>
       <c r="N13" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A14" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G14" s="13"/>
       <c r="I14" s="13"/>
@@ -3544,16 +3544,16 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A15" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G15" s="13"/>
       <c r="I15" s="13"/>
@@ -3563,16 +3563,16 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A16" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G16" s="13"/>
       <c r="I16" s="13"/>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.6">
       <c r="N21" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3617,6 +3617,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3624,8 +3625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -3654,107 +3655,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" x14ac:dyDescent="0.9">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:18" ht="24.75" x14ac:dyDescent="0.85">
-      <c r="A2" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
     </row>
     <row r="5" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A6" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
+      <c r="A6" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="39"/>
     </row>
     <row r="9" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="G9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="G9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
       <c r="N9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>12</v>
@@ -3762,74 +3763,74 @@
     </row>
     <row r="10" spans="1:18" ht="33.75" x14ac:dyDescent="0.7">
       <c r="A10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="N10" s="13" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A12" s="13" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G12" s="13"/>
       <c r="I12" s="13"/>
@@ -3839,16 +3840,16 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A13" s="13" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G13" s="13"/>
       <c r="I13" s="13"/>
@@ -3858,16 +3859,16 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A14" s="13" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G14" s="13"/>
       <c r="I14" s="13"/>
@@ -3877,16 +3878,16 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A15" s="13" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>120</v>
+        <v>271</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G15" s="13"/>
       <c r="I15" s="13"/>
@@ -3896,16 +3897,16 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A16" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G16" s="13"/>
       <c r="I16" s="13"/>
@@ -3915,37 +3916,37 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A17" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="84.4" x14ac:dyDescent="0.6">
       <c r="K20" s="19" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.6">
       <c r="Q23" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="20:20" x14ac:dyDescent="0.6">
       <c r="T41" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3966,8 +3967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -3996,107 +3997,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" x14ac:dyDescent="0.9">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:18" ht="24.75" x14ac:dyDescent="0.85">
-      <c r="A2" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
     </row>
     <row r="5" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A6" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
+      <c r="A6" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="39"/>
     </row>
     <row r="9" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="G9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="G9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
       <c r="N9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>12</v>
@@ -4104,97 +4105,97 @@
     </row>
     <row r="10" spans="1:18" ht="33.75" x14ac:dyDescent="0.7">
       <c r="A10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="N10" s="13" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A12" s="13" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="K12" s="13"/>
       <c r="N12" s="13"/>
       <c r="Q12" s="14" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A13" s="13" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G13" s="13"/>
       <c r="I13" s="13"/>
@@ -4204,16 +4205,16 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A14" s="13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G14" s="13"/>
       <c r="I14" s="13"/>
@@ -4223,16 +4224,16 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A15" s="13" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G15" s="13"/>
       <c r="I15" s="13"/>
@@ -4242,16 +4243,16 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A16" s="13" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G16" s="13"/>
       <c r="I16" s="13"/>
@@ -4260,16 +4261,16 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A17" s="13" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="G17" s="20"/>
       <c r="I17" s="20"/>
@@ -4278,72 +4279,72 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A18" s="13" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A19" s="21" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A20" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K20" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="N20" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="Q20" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A21" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="219.4" x14ac:dyDescent="0.6">
       <c r="Q23" s="18" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.6">
@@ -4368,7 +4369,7 @@
   <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:E19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -4397,107 +4398,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" x14ac:dyDescent="0.9">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:18" ht="24.75" x14ac:dyDescent="0.85">
-      <c r="A2" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
     </row>
     <row r="5" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A6" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
+      <c r="A6" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="39"/>
     </row>
     <row r="9" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="G9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="G9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
       <c r="N9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>12</v>
@@ -4505,166 +4506,166 @@
     </row>
     <row r="10" spans="1:18" ht="33.75" x14ac:dyDescent="0.7">
       <c r="A10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="N10" s="13" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="K11" s="41" t="s">
-        <v>276</v>
+        <v>135</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>256</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A12" s="13" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A13" s="13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="K13" s="13"/>
       <c r="N13" s="13" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A14" s="13" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G14" s="13"/>
       <c r="I14" s="13"/>
       <c r="K14" s="13"/>
       <c r="N14" s="13" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A15" s="13" t="s">
-        <v>162</v>
+        <v>272</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G15" s="13"/>
       <c r="I15" s="13"/>
       <c r="K15" s="13"/>
       <c r="N15" s="13"/>
       <c r="Q15" s="14" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A16" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="G16" s="13"/>
       <c r="I16" s="13"/>
@@ -4674,178 +4675,178 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A17" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A18" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A19" s="13" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="409.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="K20" s="42" t="s">
-        <v>278</v>
+      <c r="K20" s="43" t="s">
+        <v>259</v>
       </c>
       <c r="N20" s="23"/>
       <c r="Q20" s="24" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="K21" s="42"/>
+      <c r="K21" s="43"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
-        <v>163</v>
-      </c>
-      <c r="K22" s="42"/>
+        <v>149</v>
+      </c>
+      <c r="K22" s="43"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="K23" s="42"/>
+      <c r="K23" s="43"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="K24" s="42"/>
+      <c r="K24" s="43"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="K25" s="42"/>
+      <c r="K25" s="43"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="K26" s="42"/>
+      <c r="K26" s="43"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="K27" s="42"/>
+      <c r="K27" s="43"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="K28" s="42"/>
+      <c r="K28" s="43"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="K29" s="42"/>
+      <c r="K29" s="43"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="K30" s="42"/>
+      <c r="K30" s="43"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="K31" s="42"/>
+      <c r="K31" s="43"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="K32" s="42"/>
+      <c r="K32" s="43"/>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K33" s="42"/>
+      <c r="K33" s="43"/>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K34" s="42"/>
+      <c r="K34" s="43"/>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K35" s="42"/>
+      <c r="K35" s="43"/>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K36" s="42"/>
+      <c r="K36" s="43"/>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K37" s="42"/>
+      <c r="K37" s="43"/>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K38" s="42"/>
+      <c r="K38" s="43"/>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K39" s="42"/>
+      <c r="K39" s="43"/>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K40" s="42"/>
+      <c r="K40" s="43"/>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K41" s="42"/>
+      <c r="K41" s="43"/>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K42" s="42"/>
+      <c r="K42" s="43"/>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K43" s="42"/>
+      <c r="K43" s="43"/>
     </row>
     <row r="44" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K44" s="42"/>
+      <c r="K44" s="43"/>
     </row>
     <row r="45" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K45" s="42"/>
+      <c r="K45" s="43"/>
     </row>
     <row r="46" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K46" s="42"/>
+      <c r="K46" s="43"/>
     </row>
     <row r="47" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K47" s="42"/>
+      <c r="K47" s="43"/>
     </row>
     <row r="48" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K48" s="42"/>
+      <c r="K48" s="43"/>
     </row>
     <row r="49" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K49" s="42"/>
+      <c r="K49" s="43"/>
     </row>
     <row r="50" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K50" s="42"/>
+      <c r="K50" s="43"/>
     </row>
     <row r="51" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K51" s="42"/>
+      <c r="K51" s="43"/>
     </row>
     <row r="52" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K52" s="42"/>
+      <c r="K52" s="43"/>
     </row>
     <row r="53" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K53" s="42"/>
+      <c r="K53" s="43"/>
     </row>
     <row r="54" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K54" s="42"/>
+      <c r="K54" s="43"/>
     </row>
     <row r="55" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K55" s="42"/>
+      <c r="K55" s="43"/>
     </row>
     <row r="56" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K56" s="42"/>
+      <c r="K56" s="43"/>
     </row>
     <row r="57" spans="11:11" x14ac:dyDescent="0.6">
-      <c r="K57" s="42"/>
+      <c r="K57" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
     <mergeCell ref="K20:K57"/>
     <mergeCell ref="A5:Q5"/>
     <mergeCell ref="A6:Q6"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="G9:K9"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4857,8 +4858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -4887,107 +4888,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" x14ac:dyDescent="0.9">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:18" ht="24.75" x14ac:dyDescent="0.85">
-      <c r="A2" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
     </row>
     <row r="5" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A6" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
+      <c r="A6" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="39"/>
     </row>
     <row r="9" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="G9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="G9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
       <c r="N9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>12</v>
@@ -4995,70 +4996,70 @@
     </row>
     <row r="10" spans="1:18" ht="33.75" x14ac:dyDescent="0.7">
       <c r="A10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="N10" s="13" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="K11" s="13"/>
       <c r="N11" s="13"/>
       <c r="Q11" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A12" s="13" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="G12" s="13"/>
       <c r="I12" s="13"/>
@@ -5068,16 +5069,16 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A13" s="13" t="s">
-        <v>162</v>
+        <v>276</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="G13" s="13"/>
       <c r="I13" s="13"/>
@@ -5087,16 +5088,16 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A14" s="13" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="G14" s="13"/>
       <c r="I14" s="13"/>
@@ -5106,16 +5107,16 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A15" s="13" t="s">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G15" s="13"/>
       <c r="I15" s="13"/>
@@ -5125,16 +5126,16 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A16" s="13" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="G16" s="13"/>
       <c r="I16" s="13"/>
@@ -5143,7 +5144,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -5165,8 +5166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:Q11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -5195,107 +5196,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" x14ac:dyDescent="0.9">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:18" ht="24.75" x14ac:dyDescent="0.85">
-      <c r="A2" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
     </row>
     <row r="5" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A6" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
+      <c r="A6" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="39"/>
     </row>
     <row r="9" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="G9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="G9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
       <c r="N9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>12</v>
@@ -5303,72 +5304,72 @@
     </row>
     <row r="10" spans="1:18" ht="33.75" x14ac:dyDescent="0.7">
       <c r="A10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="N10" s="13" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="26" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A11" s="13" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="K11" s="13"/>
       <c r="N11" s="13" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A12" s="13" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="G12" s="13"/>
       <c r="I12" s="13"/>
@@ -5378,16 +5379,16 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A13" s="13" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G13" s="13"/>
       <c r="I13" s="13"/>
@@ -5429,12 +5430,12 @@
     </row>
     <row r="19" spans="14:17" x14ac:dyDescent="0.6">
       <c r="Q19" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="14:17" ht="84.4" x14ac:dyDescent="0.6">
       <c r="N20" s="25" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5455,8 +5456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -5485,107 +5486,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" x14ac:dyDescent="0.9">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:18" ht="24.75" x14ac:dyDescent="0.85">
-      <c r="A2" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
     </row>
     <row r="5" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A6" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
+      <c r="A6" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="39"/>
     </row>
     <row r="9" spans="1:18" ht="20.65" x14ac:dyDescent="0.7">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="G9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="G9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
       <c r="N9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>12</v>
@@ -5593,76 +5594,76 @@
     </row>
     <row r="10" spans="1:18" ht="33.75" x14ac:dyDescent="0.7">
       <c r="A10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="N10" s="14" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K11" s="13"/>
       <c r="N11" s="13" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A12" s="13" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="K12" s="13"/>
       <c r="N12" s="13"/>
@@ -5670,16 +5671,16 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A13" s="13" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="G13" s="13"/>
       <c r="I13" s="13"/>
@@ -5689,16 +5690,16 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A14" s="13" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="G14" s="13"/>
       <c r="I14" s="13"/>
@@ -5708,37 +5709,37 @@
     </row>
     <row r="15" spans="1:18" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A15" s="13" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="G15" s="13"/>
       <c r="I15" s="13"/>
       <c r="K15" s="13"/>
       <c r="N15" s="13"/>
       <c r="Q15" s="14" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A16" s="13" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="G16" s="13"/>
       <c r="I16" s="13"/>
@@ -5747,49 +5748,49 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A17" s="21" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A18" s="21" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A19" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>218</v>
+      <c r="A19" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>226</v>
+        <v>39</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="67.5" x14ac:dyDescent="0.6">
       <c r="N20" s="18" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
